--- a/Code/Results/Cases/Case_4_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.630319944394614</v>
+        <v>1.526564516268195</v>
       </c>
       <c r="C2">
-        <v>0.297138099827194</v>
+        <v>0.1676714244238156</v>
       </c>
       <c r="D2">
-        <v>0.2800671001043895</v>
+        <v>0.5182808915800479</v>
       </c>
       <c r="E2">
-        <v>0.06756067893990014</v>
+        <v>0.1734196780717419</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.56671219114466</v>
+        <v>0.9526172156701591</v>
       </c>
       <c r="H2">
-        <v>0.41704587568438</v>
+        <v>0.9864382198177566</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02698272842092209</v>
+        <v>0.07077265090906648</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3471590455147293</v>
+        <v>0.4169754934032568</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8234272937149356</v>
+        <v>1.421750933881157</v>
       </c>
       <c r="O2">
-        <v>2.022678940570302</v>
+        <v>3.9223879105366</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.293573393884856</v>
+        <v>1.431762634315874</v>
       </c>
       <c r="C3">
-        <v>0.2713695776849647</v>
+        <v>0.1590470105446826</v>
       </c>
       <c r="D3">
-        <v>0.263208731330991</v>
+        <v>0.5171009416604306</v>
       </c>
       <c r="E3">
-        <v>0.06679870015545397</v>
+        <v>0.1742528135663459</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5352805808899888</v>
+        <v>0.952958548875543</v>
       </c>
       <c r="H3">
-        <v>0.4090024933082788</v>
+        <v>0.9912435071558008</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02760325996999446</v>
+        <v>0.07114662343867773</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3114173269321299</v>
+        <v>0.4091006349206907</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8473715043073895</v>
+        <v>1.433289981010688</v>
       </c>
       <c r="O3">
-        <v>1.938771167291719</v>
+        <v>3.932836416365603</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.087495872692102</v>
+        <v>1.373918949326367</v>
       </c>
       <c r="C4">
-        <v>0.2555163037985011</v>
+        <v>0.1537180640582108</v>
       </c>
       <c r="D4">
-        <v>0.2532199257140633</v>
+        <v>0.5166032018895663</v>
       </c>
       <c r="E4">
-        <v>0.06642431781133773</v>
+        <v>0.1748282724769972</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5172040777727602</v>
+        <v>0.9537669553418624</v>
       </c>
       <c r="H4">
-        <v>0.4048004146794426</v>
+        <v>0.9946357942068005</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02800042174129924</v>
+        <v>0.07138888702301438</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2897269254024621</v>
+        <v>0.4044247209253058</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8631382422571718</v>
+        <v>1.440903923322935</v>
       </c>
       <c r="O4">
-        <v>1.891373257156232</v>
+        <v>3.941434158793527</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.003660419301184</v>
+        <v>1.350440632727896</v>
       </c>
       <c r="C5">
-        <v>0.2490469389122438</v>
+        <v>0.1515381975263921</v>
       </c>
       <c r="D5">
-        <v>0.2492360057170231</v>
+        <v>0.5164574850527828</v>
       </c>
       <c r="E5">
-        <v>0.06629449482202254</v>
+        <v>0.1750788693155041</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5101276410457558</v>
+        <v>0.954246878852075</v>
       </c>
       <c r="H5">
-        <v>0.4032653288138448</v>
+        <v>0.9961293431878318</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02816632021759213</v>
+        <v>0.07149079710288353</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2809471602745219</v>
+        <v>0.4025594805926289</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8698237687131609</v>
+        <v>1.444139792170382</v>
       </c>
       <c r="O5">
-        <v>1.87304085405836</v>
+        <v>3.94548651011209</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.989747395820984</v>
+        <v>1.346547769480992</v>
       </c>
       <c r="C6">
-        <v>0.2479721285099146</v>
+        <v>0.1511757368767519</v>
       </c>
       <c r="D6">
-        <v>0.2485795817570704</v>
+        <v>0.5164367414156459</v>
       </c>
       <c r="E6">
-        <v>0.0662742896368318</v>
+        <v>0.1751214533313785</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5089696156649239</v>
+        <v>0.9543356565143313</v>
       </c>
       <c r="H6">
-        <v>0.4030209129460616</v>
+        <v>0.9963840618414821</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0281941119694471</v>
+        <v>0.07150791179468241</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2794927270269056</v>
+        <v>0.4022521941144817</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8709494191632174</v>
+        <v>1.444685149915372</v>
       </c>
       <c r="O6">
-        <v>1.870054597777624</v>
+        <v>3.946192538498792</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.086364698252623</v>
+        <v>1.373601931944108</v>
       </c>
       <c r="C7">
-        <v>0.2554290936956249</v>
+        <v>0.1536886989299546</v>
       </c>
       <c r="D7">
-        <v>0.2531658523284221</v>
+        <v>0.5166010053114576</v>
       </c>
       <c r="E7">
-        <v>0.06642247587993033</v>
+        <v>0.1748315869257429</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5171074913054241</v>
+        <v>0.9537728185428733</v>
       </c>
       <c r="H7">
-        <v>0.404779004296941</v>
+        <v>0.994655486545355</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02800264271323005</v>
+        <v>0.07139024851039588</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2896082848161825</v>
+        <v>0.4043994025021078</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8632273604337968</v>
+        <v>1.440947024195367</v>
       </c>
       <c r="O7">
-        <v>1.891122110510622</v>
+        <v>3.941486588633865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.514048752859878</v>
+        <v>1.493802023490105</v>
       </c>
       <c r="C8">
-        <v>0.2882588769115273</v>
+        <v>0.1647047722733106</v>
       </c>
       <c r="D8">
-        <v>0.2741763531851973</v>
+        <v>0.5178270385706156</v>
       </c>
       <c r="E8">
-        <v>0.06727807605477842</v>
+        <v>0.1736936916133445</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.555609965091179</v>
+        <v>0.9526105648944565</v>
       </c>
       <c r="H8">
-        <v>0.4141147391621587</v>
+        <v>0.9880034208146213</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02719332917510808</v>
+        <v>0.07089897654626265</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3347792914789522</v>
+        <v>0.4142272881197613</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8314577138633368</v>
+        <v>1.425619893485461</v>
       </c>
       <c r="O8">
-        <v>1.99285879264886</v>
+        <v>3.925537570869977</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.35965352230852</v>
+        <v>1.732350142984444</v>
       </c>
       <c r="C9">
-        <v>0.3524496313030738</v>
+        <v>0.1860355920552479</v>
       </c>
       <c r="D9">
-        <v>0.3184692650179244</v>
+        <v>0.5220269039135275</v>
       </c>
       <c r="E9">
-        <v>0.06973407587686253</v>
+        <v>0.1719684722365322</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6416546985581135</v>
+        <v>0.9550881539156677</v>
       </c>
       <c r="H9">
-        <v>0.4386459956719904</v>
+        <v>0.9784620419844288</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02573486012240966</v>
+        <v>0.07003560747572335</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4256238128414935</v>
+        <v>0.4347569931321544</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7779552799359593</v>
+        <v>1.399754818978423</v>
       </c>
       <c r="O9">
-        <v>2.227645653360895</v>
+        <v>3.911584096993749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.987385394322359</v>
+        <v>1.909277540573044</v>
       </c>
       <c r="C10">
-        <v>0.3995910190166398</v>
+        <v>0.2015355203791103</v>
       </c>
       <c r="D10">
-        <v>0.3532181749855283</v>
+        <v>0.5262034074984996</v>
       </c>
       <c r="E10">
-        <v>0.07206674919369149</v>
+        <v>0.1710083930317374</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7125435568416094</v>
+        <v>0.9598176434188446</v>
       </c>
       <c r="H10">
-        <v>0.4610255280525593</v>
+        <v>0.973585282243306</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02474227925327632</v>
+        <v>0.06946183216272894</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4941091905957506</v>
+        <v>0.4505997666961008</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7445223813135371</v>
+        <v>1.3832998370886</v>
       </c>
       <c r="O10">
-        <v>2.425470536256086</v>
+        <v>3.9119080427227</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.274904464190683</v>
+        <v>1.990115995911367</v>
       </c>
       <c r="C11">
-        <v>0.4210561765719945</v>
+        <v>0.20854830313462</v>
       </c>
       <c r="D11">
-        <v>0.369582332582084</v>
+        <v>0.5283395424407331</v>
       </c>
       <c r="E11">
-        <v>0.07325542250230299</v>
+        <v>0.1706381500993572</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7467558143830502</v>
+        <v>0.9626030556588745</v>
       </c>
       <c r="H11">
-        <v>0.4722867903209931</v>
+        <v>0.9718294995154224</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02430800326344995</v>
+        <v>0.06921386161161402</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5257300714037001</v>
+        <v>0.4579706685073575</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7307105987803553</v>
+        <v>1.376365934843065</v>
       </c>
       <c r="O11">
-        <v>2.521877224962026</v>
+        <v>3.91435551743848</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.384110242994723</v>
+        <v>2.020776790017749</v>
       </c>
       <c r="C12">
-        <v>0.4291894508681651</v>
+        <v>0.2111982315951764</v>
       </c>
       <c r="D12">
-        <v>0.3758658855866344</v>
+        <v>0.5291823289636426</v>
       </c>
       <c r="E12">
-        <v>0.07372501931659059</v>
+        <v>0.1705074916226579</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7600202556179028</v>
+        <v>0.9637491160463441</v>
       </c>
       <c r="H12">
-        <v>0.4767186035321487</v>
+        <v>0.9712311183321276</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02414604861466874</v>
+        <v>0.06912183043336206</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5377788599146385</v>
+        <v>0.4607852590332726</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7256923537276805</v>
+        <v>1.37381946449689</v>
       </c>
       <c r="O12">
-        <v>2.559388192853277</v>
+        <v>3.915613270618962</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.360575430508618</v>
+        <v>2.01417128725825</v>
       </c>
       <c r="C13">
-        <v>0.4274375542044879</v>
+        <v>0.2106277764503659</v>
       </c>
       <c r="D13">
-        <v>0.3745086368587209</v>
+        <v>0.5289993144791083</v>
       </c>
       <c r="E13">
-        <v>0.07362299832799835</v>
+        <v>0.1705352070620663</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7571493349856411</v>
+        <v>0.9634982295192032</v>
       </c>
       <c r="H13">
-        <v>0.4757564864564614</v>
+        <v>0.9713570336008814</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0241808171757234</v>
+        <v>0.06914156792005866</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.535180491178636</v>
+        <v>0.4601780492720309</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7267635100421614</v>
+        <v>1.374364368849271</v>
       </c>
       <c r="O13">
-        <v>2.551263528465256</v>
+        <v>3.915327668886704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.283882024605703</v>
+        <v>1.992637505520804</v>
       </c>
       <c r="C14">
-        <v>0.4217251961306943</v>
+        <v>0.2087664287271593</v>
       </c>
       <c r="D14">
-        <v>0.3700975042595047</v>
+        <v>0.5284082005325246</v>
       </c>
       <c r="E14">
-        <v>0.07329365949454925</v>
+        <v>0.1706272095672468</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7478407363285839</v>
+        <v>0.9626955125318659</v>
       </c>
       <c r="H14">
-        <v>0.4726479709700442</v>
+        <v>0.9717789378751149</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0242946290392001</v>
+        <v>0.06920625270805392</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5267197910763599</v>
+        <v>0.4582017588525815</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7302934301454655</v>
+        <v>1.376154847300171</v>
       </c>
       <c r="O14">
-        <v>2.52494266884591</v>
+        <v>3.91445235975354</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.236949331784388</v>
+        <v>1.979453774300453</v>
       </c>
       <c r="C15">
-        <v>0.4182269094828257</v>
+        <v>0.2076255574819186</v>
       </c>
       <c r="D15">
-        <v>0.3674070708128312</v>
+        <v>0.5280505354965186</v>
       </c>
       <c r="E15">
-        <v>0.07309450075723944</v>
+        <v>0.1706848061873032</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7421800118046491</v>
+        <v>0.9622157169255701</v>
       </c>
       <c r="H15">
-        <v>0.4707660899310184</v>
+        <v>0.9720460250246674</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02436466763901146</v>
+        <v>0.06924611735662634</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5215473234652137</v>
+        <v>0.4569942644859992</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7324835560264589</v>
+        <v>1.377261885641843</v>
       </c>
       <c r="O15">
-        <v>2.50895362973003</v>
+        <v>3.913959312553089</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.968638701504119</v>
+        <v>1.904001514528034</v>
       </c>
       <c r="C16">
-        <v>0.3981887929463994</v>
+        <v>0.2010764354616015</v>
       </c>
       <c r="D16">
-        <v>0.3521605071528739</v>
+        <v>0.526068551767608</v>
       </c>
       <c r="E16">
-        <v>0.07199172794663156</v>
+        <v>0.1710339258911553</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7103494588830301</v>
+        <v>0.9596483774367499</v>
       </c>
       <c r="H16">
-        <v>0.4603123315869908</v>
+        <v>0.9737093338850542</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02477100868210957</v>
+        <v>0.06947829959080698</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4920527128281122</v>
+        <v>0.4501213440860283</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7454540558600939</v>
+        <v>1.383764076910182</v>
       </c>
       <c r="O16">
-        <v>2.419306041661969</v>
+        <v>3.911794395231624</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.80457301700892</v>
+        <v>1.857803218078914</v>
       </c>
       <c r="C17">
-        <v>0.3859025997674905</v>
+        <v>0.1970488563465551</v>
       </c>
       <c r="D17">
-        <v>0.3429544725493372</v>
+        <v>0.5249131071841475</v>
       </c>
       <c r="E17">
-        <v>0.0713486581805185</v>
+        <v>0.1712651191306627</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6913438721021947</v>
+        <v>0.9582358550741361</v>
       </c>
       <c r="H17">
-        <v>0.454184357517434</v>
+        <v>0.974848196784464</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02502471545001583</v>
+        <v>0.06962407239600488</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4740834166959047</v>
+        <v>0.4459468884101199</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7537764982383592</v>
+        <v>1.387894178795392</v>
       </c>
       <c r="O17">
-        <v>2.366009266190275</v>
+        <v>3.911055540530612</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.710388322842391</v>
+        <v>1.831264539648998</v>
       </c>
       <c r="C18">
-        <v>0.3788376893618874</v>
+        <v>0.1947287124777688</v>
       </c>
       <c r="D18">
-        <v>0.3377113731664707</v>
+        <v>0.5242707657738634</v>
       </c>
       <c r="E18">
-        <v>0.07099071274802071</v>
+        <v>0.1714043559373408</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.680595577961796</v>
+        <v>0.9574830719255942</v>
       </c>
       <c r="H18">
-        <v>0.4507606599435832</v>
+        <v>0.975546792391242</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02517226395338534</v>
+        <v>0.0697091450335332</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4637913801542055</v>
+        <v>0.4435612942071003</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7586941324021765</v>
+        <v>1.39032162234156</v>
       </c>
       <c r="O18">
-        <v>2.335952985192961</v>
+        <v>3.910847056468896</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.678528824032128</v>
+        <v>1.822284782946838</v>
       </c>
       <c r="C19">
-        <v>0.3764458813537601</v>
+        <v>0.1939425406236808</v>
       </c>
       <c r="D19">
-        <v>0.3359448774724285</v>
+        <v>0.5240571024503424</v>
       </c>
       <c r="E19">
-        <v>0.07087153449094963</v>
+        <v>0.1714525749488018</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6769870815397354</v>
+        <v>0.9572384357397112</v>
       </c>
       <c r="H19">
-        <v>0.4496184413239206</v>
+        <v>0.9757908060652909</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02522249965825019</v>
+        <v>0.06973816024564394</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4603139110167405</v>
+        <v>0.4427562308718791</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7603812957585276</v>
+        <v>1.391152432062526</v>
       </c>
       <c r="O19">
-        <v>2.325876874305322</v>
+        <v>3.910813643038779</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.822018973716524</v>
+        <v>1.862717665878279</v>
       </c>
       <c r="C20">
-        <v>0.3872102878135024</v>
+        <v>0.197477971445835</v>
       </c>
       <c r="D20">
-        <v>0.3439290447651473</v>
+        <v>0.5250338051542798</v>
       </c>
       <c r="E20">
-        <v>0.07141587124574045</v>
+        <v>0.1712398604039009</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6933479011888295</v>
+        <v>0.9583800447535253</v>
       </c>
       <c r="H20">
-        <v>0.4548261585345728</v>
+        <v>0.9747224557065124</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02499753984159137</v>
+        <v>0.0696084275821045</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4759917314410984</v>
+        <v>0.4463896694667255</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7528769463342542</v>
+        <v>1.387449149543066</v>
       </c>
       <c r="O20">
-        <v>2.371620274098291</v>
+        <v>3.911111786008462</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.306399430477143</v>
+        <v>1.99896118281498</v>
       </c>
       <c r="C21">
-        <v>0.4234029050163315</v>
+        <v>0.209313306603832</v>
       </c>
       <c r="D21">
-        <v>0.3713907488776016</v>
+        <v>0.5285809062886813</v>
       </c>
       <c r="E21">
-        <v>0.07338985640511098</v>
+        <v>0.1705999273128995</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7505662902630235</v>
+        <v>0.9629288115223176</v>
       </c>
       <c r="H21">
-        <v>0.4735563734769386</v>
+        <v>0.971653209983657</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02426113186427248</v>
+        <v>0.06918720251425903</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5292028147531056</v>
+        <v>0.4587816099305542</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7292507618519508</v>
+        <v>1.375626790100576</v>
       </c>
       <c r="O21">
-        <v>2.532645820969947</v>
+        <v>3.914700475890925</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624909432801928</v>
+        <v>2.088289132947125</v>
       </c>
       <c r="C22">
-        <v>0.4470863924611876</v>
+        <v>0.2170153141899505</v>
       </c>
       <c r="D22">
-        <v>0.3898479927624834</v>
+        <v>0.5310965705560733</v>
       </c>
       <c r="E22">
-        <v>0.07479405115665116</v>
+        <v>0.1702373181377084</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.789776649812552</v>
+        <v>0.9664338312207121</v>
       </c>
       <c r="H22">
-        <v>0.4867797203031614</v>
+        <v>0.9700348510134233</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02379440428966006</v>
+        <v>0.0689228041411809</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5644183689374671</v>
+        <v>0.467016708434457</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7150509579842463</v>
+        <v>1.368362085972194</v>
       </c>
       <c r="O22">
-        <v>2.643778689057285</v>
+        <v>3.918974998278117</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.454720816647239</v>
+        <v>2.040587639565899</v>
       </c>
       <c r="C23">
-        <v>0.4344426705260389</v>
+        <v>0.212907687989059</v>
       </c>
       <c r="D23">
-        <v>0.3799480435360607</v>
+        <v>0.5297358781489692</v>
       </c>
       <c r="E23">
-        <v>0.07403377227581842</v>
+        <v>0.1704257659291315</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7686740108648564</v>
+        <v>0.9645144045105951</v>
       </c>
       <c r="H23">
-        <v>0.4796281058675049</v>
+        <v>0.9708631490710218</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02404216835133877</v>
+        <v>0.06906292334276642</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5455803416604539</v>
+        <v>0.4626090756388948</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7225122169572273</v>
+        <v>1.372197152267248</v>
       </c>
       <c r="O23">
-        <v>2.583897267172375</v>
+        <v>3.916517027696955</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.814131227670202</v>
+        <v>1.860495777425626</v>
       </c>
       <c r="C24">
-        <v>0.3866190865994668</v>
+        <v>0.1972839829344366</v>
       </c>
       <c r="D24">
-        <v>0.3434882867637867</v>
+        <v>0.5249791692582875</v>
       </c>
       <c r="E24">
-        <v>0.07138544766170085</v>
+        <v>0.1712512601846043</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6924413263453744</v>
+        <v>0.9583146719085818</v>
       </c>
       <c r="H24">
-        <v>0.4545356917197552</v>
+        <v>0.9747791666579673</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0250098206741014</v>
+        <v>0.06961549665873701</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4751288622081802</v>
+        <v>0.4461894434210052</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.753283220466578</v>
+        <v>1.387650182190626</v>
       </c>
       <c r="O24">
-        <v>2.369081722152686</v>
+        <v>3.911085683694949</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.129931956046846</v>
+        <v>1.667519447207439</v>
       </c>
       <c r="C25">
-        <v>0.3350951434814959</v>
+        <v>0.180294767960973</v>
       </c>
       <c r="D25">
-        <v>0.3061238705490155</v>
+        <v>0.5206988885975363</v>
       </c>
       <c r="E25">
-        <v>0.06898099540002001</v>
+        <v>0.1723811176733321</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.617125149597328</v>
+        <v>0.9539076878071597</v>
       </c>
       <c r="H25">
-        <v>0.431287547709104</v>
+        <v>0.9806684372157974</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02611559188557644</v>
+        <v>0.07025850907740905</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4007697244938271</v>
+        <v>0.4290692766536637</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7914364529703661</v>
+        <v>1.406304043101905</v>
       </c>
       <c r="O25">
-        <v>2.159973458489929</v>
+        <v>3.913502808459612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_251/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_251/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.526564516268195</v>
+        <v>2.630319944394614</v>
       </c>
       <c r="C2">
-        <v>0.1676714244238156</v>
+        <v>0.2971380998270945</v>
       </c>
       <c r="D2">
-        <v>0.5182808915800479</v>
+        <v>0.2800671001043469</v>
       </c>
       <c r="E2">
-        <v>0.1734196780717419</v>
+        <v>0.06756067893988416</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9526172156701591</v>
+        <v>0.5667121911446316</v>
       </c>
       <c r="H2">
-        <v>0.9864382198177566</v>
+        <v>0.4170458756842379</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07077265090906648</v>
+        <v>0.02698272842105176</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4169754934032568</v>
+        <v>0.3471590455147577</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.421750933881157</v>
+        <v>0.8234272937149427</v>
       </c>
       <c r="O2">
-        <v>3.9223879105366</v>
+        <v>2.022678940570302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.431762634315874</v>
+        <v>2.293573393885026</v>
       </c>
       <c r="C3">
-        <v>0.1590470105446826</v>
+        <v>0.2713695776852347</v>
       </c>
       <c r="D3">
-        <v>0.5171009416604306</v>
+        <v>0.2632087313310052</v>
       </c>
       <c r="E3">
-        <v>0.1742528135663459</v>
+        <v>0.06679870015545397</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.952958548875543</v>
+        <v>0.5352805808900598</v>
       </c>
       <c r="H3">
-        <v>0.9912435071558008</v>
+        <v>0.4090024933081651</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07114662343867773</v>
+        <v>0.0276032599699616</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4091006349206907</v>
+        <v>0.3114173269319735</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.433289981010688</v>
+        <v>0.8473715043074037</v>
       </c>
       <c r="O3">
-        <v>3.932836416365603</v>
+        <v>1.938771167291719</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.373918949326367</v>
+        <v>2.087495872692045</v>
       </c>
       <c r="C4">
-        <v>0.1537180640582108</v>
+        <v>0.25551630379843</v>
       </c>
       <c r="D4">
-        <v>0.5166032018895663</v>
+        <v>0.2532199257140491</v>
       </c>
       <c r="E4">
-        <v>0.1748282724769972</v>
+        <v>0.06642431781133773</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9537669553418624</v>
+        <v>0.5172040777727602</v>
       </c>
       <c r="H4">
-        <v>0.9946357942068005</v>
+        <v>0.4048004146794426</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07138888702301438</v>
+        <v>0.02800042174126682</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4044247209253058</v>
+        <v>0.2897269254024195</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.440903923322935</v>
+        <v>0.8631382422571647</v>
       </c>
       <c r="O4">
-        <v>3.941434158793527</v>
+        <v>1.891373257156204</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.350440632727896</v>
+        <v>2.003660419301355</v>
       </c>
       <c r="C5">
-        <v>0.1515381975263921</v>
+        <v>0.249046938912727</v>
       </c>
       <c r="D5">
-        <v>0.5164574850527828</v>
+        <v>0.2492360057170231</v>
       </c>
       <c r="E5">
-        <v>0.1750788693155041</v>
+        <v>0.06629449482202254</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.954246878852075</v>
+        <v>0.5101276410458269</v>
       </c>
       <c r="H5">
-        <v>0.9961293431878318</v>
+        <v>0.4032653288138448</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07149079710288353</v>
+        <v>0.02816632021758725</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4025594805926289</v>
+        <v>0.2809471602745788</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.444139792170382</v>
+        <v>0.8698237687131538</v>
       </c>
       <c r="O5">
-        <v>3.94548651011209</v>
+        <v>1.87304085405836</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.346547769480992</v>
+        <v>1.989747395820757</v>
       </c>
       <c r="C6">
-        <v>0.1511757368767519</v>
+        <v>0.247972128509744</v>
       </c>
       <c r="D6">
-        <v>0.5164367414156459</v>
+        <v>0.2485795817570988</v>
       </c>
       <c r="E6">
-        <v>0.1751214533313785</v>
+        <v>0.06627428963683357</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.9543356565143313</v>
+        <v>0.5089696156649097</v>
       </c>
       <c r="H6">
-        <v>0.9963840618414821</v>
+        <v>0.4030209129460616</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07150791179468241</v>
+        <v>0.02819411196921395</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4022521941144817</v>
+        <v>0.2794927270268204</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.444685149915372</v>
+        <v>0.8709494191632245</v>
       </c>
       <c r="O6">
-        <v>3.946192538498792</v>
+        <v>1.870054597777653</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.373601931944108</v>
+        <v>2.086364698252623</v>
       </c>
       <c r="C7">
-        <v>0.1536886989299546</v>
+        <v>0.2554290936958523</v>
       </c>
       <c r="D7">
-        <v>0.5166010053114576</v>
+        <v>0.2531658523284221</v>
       </c>
       <c r="E7">
-        <v>0.1748315869257429</v>
+        <v>0.06642247587991967</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.9537728185428733</v>
+        <v>0.5171074913054809</v>
       </c>
       <c r="H7">
-        <v>0.994655486545355</v>
+        <v>0.404779004296941</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07139024851039588</v>
+        <v>0.02800264271323272</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4043994025021078</v>
+        <v>0.2896082848163104</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.440947024195367</v>
+        <v>0.8632273604338039</v>
       </c>
       <c r="O7">
-        <v>3.941486588633865</v>
+        <v>1.891122110510508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.493802023490105</v>
+        <v>2.514048752859878</v>
       </c>
       <c r="C8">
-        <v>0.1647047722733106</v>
+        <v>0.2882588769115415</v>
       </c>
       <c r="D8">
-        <v>0.5178270385706156</v>
+        <v>0.274176353184842</v>
       </c>
       <c r="E8">
-        <v>0.1736936916133445</v>
+        <v>0.06727807605475</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.9526105648944565</v>
+        <v>0.5556099650911932</v>
       </c>
       <c r="H8">
-        <v>0.9880034208146213</v>
+        <v>0.4141147391622724</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07089897654626265</v>
+        <v>0.02719332917520711</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4142272881197613</v>
+        <v>0.3347792914788386</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.425619893485461</v>
+        <v>0.8314577138634007</v>
       </c>
       <c r="O8">
-        <v>3.925537570869977</v>
+        <v>1.992858792648804</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.732350142984444</v>
+        <v>3.359653522308633</v>
       </c>
       <c r="C9">
-        <v>0.1860355920552479</v>
+        <v>0.3524496313031023</v>
       </c>
       <c r="D9">
-        <v>0.5220269039135275</v>
+        <v>0.3184692650180949</v>
       </c>
       <c r="E9">
-        <v>0.1719684722365322</v>
+        <v>0.06973407587687497</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.9550881539156677</v>
+        <v>0.6416546985580851</v>
       </c>
       <c r="H9">
-        <v>0.9784620419844288</v>
+        <v>0.4386459956720898</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07003560747572335</v>
+        <v>0.02573486012237547</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4347569931321544</v>
+        <v>0.4256238128415077</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.399754818978423</v>
+        <v>0.7779552799359735</v>
       </c>
       <c r="O9">
-        <v>3.911584096993749</v>
+        <v>2.227645653360923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.909277540573044</v>
+        <v>3.98738539432253</v>
       </c>
       <c r="C10">
-        <v>0.2015355203791103</v>
+        <v>0.3995910190166683</v>
       </c>
       <c r="D10">
-        <v>0.5262034074984996</v>
+        <v>0.3532181749854715</v>
       </c>
       <c r="E10">
-        <v>0.1710083930317374</v>
+        <v>0.0720667491937057</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.9598176434188446</v>
+        <v>0.712543556841652</v>
       </c>
       <c r="H10">
-        <v>0.973585282243306</v>
+        <v>0.4610255280525593</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06946183216272894</v>
+        <v>0.0247422792532821</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4505997666961008</v>
+        <v>0.4941091905957364</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.3832998370886</v>
+        <v>0.7445223813136082</v>
       </c>
       <c r="O10">
-        <v>3.9119080427227</v>
+        <v>2.425470536256029</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.990115995911367</v>
+        <v>4.27490446419074</v>
       </c>
       <c r="C11">
-        <v>0.20854830313462</v>
+        <v>0.4210561765723639</v>
       </c>
       <c r="D11">
-        <v>0.5283395424407331</v>
+        <v>0.3695823325818282</v>
       </c>
       <c r="E11">
-        <v>0.1706381500993572</v>
+        <v>0.07325542250230299</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.9626030556588745</v>
+        <v>0.746755814383036</v>
       </c>
       <c r="H11">
-        <v>0.9718294995154224</v>
+        <v>0.4722867903210926</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06921386161161402</v>
+        <v>0.02430800326355076</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4579706685073575</v>
+        <v>0.5257300714037569</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.376365934843065</v>
+        <v>0.7307105987804192</v>
       </c>
       <c r="O11">
-        <v>3.91435551743848</v>
+        <v>2.521877224961997</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.020776790017749</v>
+        <v>4.384110242994723</v>
       </c>
       <c r="C12">
-        <v>0.2111982315951764</v>
+        <v>0.4291894508681651</v>
       </c>
       <c r="D12">
-        <v>0.5291823289636426</v>
+        <v>0.3758658855866344</v>
       </c>
       <c r="E12">
-        <v>0.1705074916226579</v>
+        <v>0.07372501931656927</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9637491160463441</v>
+        <v>0.7600202556179028</v>
       </c>
       <c r="H12">
-        <v>0.9712311183321276</v>
+        <v>0.4767186035321487</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06912183043336206</v>
+        <v>0.02414604861472869</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4607852590332726</v>
+        <v>0.5377788599146385</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.37381946449689</v>
+        <v>0.7256923537276734</v>
       </c>
       <c r="O12">
-        <v>3.915613270618962</v>
+        <v>2.559388192853248</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.01417128725825</v>
+        <v>4.360575430508561</v>
       </c>
       <c r="C13">
-        <v>0.2106277764503659</v>
+        <v>0.4274375542046016</v>
       </c>
       <c r="D13">
-        <v>0.5289993144791083</v>
+        <v>0.3745086368588488</v>
       </c>
       <c r="E13">
-        <v>0.1705352070620663</v>
+        <v>0.07362299832799479</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9634982295192032</v>
+        <v>0.7571493349856553</v>
       </c>
       <c r="H13">
-        <v>0.9713570336008814</v>
+        <v>0.4757564864563619</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06914156792005866</v>
+        <v>0.0241808171757163</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4601780492720309</v>
+        <v>0.5351804911786644</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.374364368849271</v>
+        <v>0.7267635100421543</v>
       </c>
       <c r="O13">
-        <v>3.915327668886704</v>
+        <v>2.551263528465284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.992637505520804</v>
+        <v>4.283882024605703</v>
       </c>
       <c r="C14">
-        <v>0.2087664287271593</v>
+        <v>0.4217251961311774</v>
       </c>
       <c r="D14">
-        <v>0.5284082005325246</v>
+        <v>0.3700975042594479</v>
       </c>
       <c r="E14">
-        <v>0.1706272095672468</v>
+        <v>0.07329365949453148</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.9626955125318659</v>
+        <v>0.7478407363285982</v>
       </c>
       <c r="H14">
-        <v>0.9717789378751149</v>
+        <v>0.4726479709700584</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06920625270805392</v>
+        <v>0.02429462903919166</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4582017588525815</v>
+        <v>0.5267197910763173</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.376154847300171</v>
+        <v>0.7302934301454727</v>
       </c>
       <c r="O14">
-        <v>3.91445235975354</v>
+        <v>2.524942668845938</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.979453774300453</v>
+        <v>4.236949331784103</v>
       </c>
       <c r="C15">
-        <v>0.2076255574819186</v>
+        <v>0.4182269094825699</v>
       </c>
       <c r="D15">
-        <v>0.5280505354965186</v>
+        <v>0.3674070708129591</v>
       </c>
       <c r="E15">
-        <v>0.1706848061873032</v>
+        <v>0.07309450075721813</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.9622157169255701</v>
+        <v>0.7421800118046633</v>
       </c>
       <c r="H15">
-        <v>0.9720460250246674</v>
+        <v>0.4707660899310184</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06924611735662634</v>
+        <v>0.02436466763897727</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4569942644859992</v>
+        <v>0.5215473234652563</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.377261885641843</v>
+        <v>0.7324835560264518</v>
       </c>
       <c r="O15">
-        <v>3.913959312553089</v>
+        <v>2.508953629729945</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.904001514528034</v>
+        <v>3.968638701504119</v>
       </c>
       <c r="C16">
-        <v>0.2010764354616015</v>
+        <v>0.3981887929463142</v>
       </c>
       <c r="D16">
-        <v>0.526068551767608</v>
+        <v>0.3521605071528739</v>
       </c>
       <c r="E16">
-        <v>0.1710339258911553</v>
+        <v>0.07199172794663511</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9596483774367499</v>
+        <v>0.7103494588830443</v>
       </c>
       <c r="H16">
-        <v>0.9737093338850542</v>
+        <v>0.4603123315868629</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06947829959080698</v>
+        <v>0.02477100868216597</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4501213440860283</v>
+        <v>0.4920527128280412</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.383764076910182</v>
+        <v>0.7454540558601011</v>
       </c>
       <c r="O16">
-        <v>3.911794395231624</v>
+        <v>2.419306041661997</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.857803218078914</v>
+        <v>3.80457301700892</v>
       </c>
       <c r="C17">
-        <v>0.1970488563465551</v>
+        <v>0.3859025997673768</v>
       </c>
       <c r="D17">
-        <v>0.5249131071841475</v>
+        <v>0.3429544725494651</v>
       </c>
       <c r="E17">
-        <v>0.1712651191306627</v>
+        <v>0.07134865818050784</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.9582358550741361</v>
+        <v>0.6913438721021379</v>
       </c>
       <c r="H17">
-        <v>0.974848196784464</v>
+        <v>0.454184357517434</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06962407239600488</v>
+        <v>0.0250247154499883</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4459468884101199</v>
+        <v>0.4740834166959189</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.387894178795392</v>
+        <v>0.7537764982384303</v>
       </c>
       <c r="O17">
-        <v>3.911055540530612</v>
+        <v>2.366009266190247</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.831264539648998</v>
+        <v>3.710388322842562</v>
       </c>
       <c r="C18">
-        <v>0.1947287124777688</v>
+        <v>0.378837689361859</v>
       </c>
       <c r="D18">
-        <v>0.5242707657738634</v>
+        <v>0.337711373166357</v>
       </c>
       <c r="E18">
-        <v>0.1714043559373408</v>
+        <v>0.07099071274803315</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.9574830719255942</v>
+        <v>0.680595577961796</v>
       </c>
       <c r="H18">
-        <v>0.975546792391242</v>
+        <v>0.4507606599434695</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0697091450335332</v>
+        <v>0.02517226395338845</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4435612942071003</v>
+        <v>0.4637913801542624</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.39032162234156</v>
+        <v>0.7586941324021126</v>
       </c>
       <c r="O18">
-        <v>3.910847056468896</v>
+        <v>2.335952985193018</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.822284782946838</v>
+        <v>3.678528824032185</v>
       </c>
       <c r="C19">
-        <v>0.1939425406236808</v>
+        <v>0.3764458813538738</v>
       </c>
       <c r="D19">
-        <v>0.5240571024503424</v>
+        <v>0.335944877472528</v>
       </c>
       <c r="E19">
-        <v>0.1714525749488018</v>
+        <v>0.07087153449093186</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.9572384357397112</v>
+        <v>0.6769870815397496</v>
       </c>
       <c r="H19">
-        <v>0.9757908060652909</v>
+        <v>0.4496184413239206</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06973816024564394</v>
+        <v>0.0252224996582755</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4427562308718791</v>
+        <v>0.4603139110166836</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.391152432062526</v>
+        <v>0.7603812957585276</v>
       </c>
       <c r="O19">
-        <v>3.910813643038779</v>
+        <v>2.325876874305294</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.862717665878279</v>
+        <v>3.822018973716524</v>
       </c>
       <c r="C20">
-        <v>0.197477971445835</v>
+        <v>0.3872102878135308</v>
       </c>
       <c r="D20">
-        <v>0.5250338051542798</v>
+        <v>0.3439290447651615</v>
       </c>
       <c r="E20">
-        <v>0.1712398604039009</v>
+        <v>0.07141587124573334</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.9583800447535253</v>
+        <v>0.6933479011887727</v>
       </c>
       <c r="H20">
-        <v>0.9747224557065124</v>
+        <v>0.4548261585347007</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0696084275821045</v>
+        <v>0.02499753984159936</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4463896694667255</v>
+        <v>0.4759917314410984</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.387449149543066</v>
+        <v>0.7528769463342044</v>
       </c>
       <c r="O20">
-        <v>3.911111786008462</v>
+        <v>2.371620274098291</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.99896118281498</v>
+        <v>4.306399430477143</v>
       </c>
       <c r="C21">
-        <v>0.209313306603832</v>
+        <v>0.4234029050165873</v>
       </c>
       <c r="D21">
-        <v>0.5285809062886813</v>
+        <v>0.3713907488777153</v>
       </c>
       <c r="E21">
-        <v>0.1705999273128995</v>
+        <v>0.07338985640510742</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.9629288115223176</v>
+        <v>0.7505662902630377</v>
       </c>
       <c r="H21">
-        <v>0.971653209983657</v>
+        <v>0.4735563734768249</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06918720251425903</v>
+        <v>0.02426113186429246</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4587816099305542</v>
+        <v>0.5292028147530345</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.375626790100576</v>
+        <v>0.7292507618519437</v>
       </c>
       <c r="O21">
-        <v>3.914700475890925</v>
+        <v>2.532645820969947</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.088289132947125</v>
+        <v>4.624909432801871</v>
       </c>
       <c r="C22">
-        <v>0.2170153141899505</v>
+        <v>0.4470863924616424</v>
       </c>
       <c r="D22">
-        <v>0.5310965705560733</v>
+        <v>0.3898479927624408</v>
       </c>
       <c r="E22">
-        <v>0.1702373181377084</v>
+        <v>0.07479405115670801</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.9664338312207121</v>
+        <v>0.7897766498125947</v>
       </c>
       <c r="H22">
-        <v>0.9700348510134233</v>
+        <v>0.4867797203031756</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0689228041411809</v>
+        <v>0.0237944042896796</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.467016708434457</v>
+        <v>0.5644183689374529</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.368362085972194</v>
+        <v>0.7150509579843103</v>
       </c>
       <c r="O22">
-        <v>3.918974998278117</v>
+        <v>2.643778689057427</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.040587639565899</v>
+        <v>4.454720816647296</v>
       </c>
       <c r="C23">
-        <v>0.212907687989059</v>
+        <v>0.4344426705260389</v>
       </c>
       <c r="D23">
-        <v>0.5297358781489692</v>
+        <v>0.3799480435361033</v>
       </c>
       <c r="E23">
-        <v>0.1704257659291315</v>
+        <v>0.07403377227581487</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.9645144045105951</v>
+        <v>0.7686740108648422</v>
       </c>
       <c r="H23">
-        <v>0.9708631490710218</v>
+        <v>0.4796281058673912</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06906292334276642</v>
+        <v>0.02404216835149242</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4626090756388948</v>
+        <v>0.5455803416604681</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.372197152267248</v>
+        <v>0.7225122169572273</v>
       </c>
       <c r="O23">
-        <v>3.916517027696955</v>
+        <v>2.583897267172318</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.860495777425626</v>
+        <v>3.814131227670202</v>
       </c>
       <c r="C24">
-        <v>0.1972839829344366</v>
+        <v>0.3866190865996657</v>
       </c>
       <c r="D24">
-        <v>0.5249791692582875</v>
+        <v>0.343488286763673</v>
       </c>
       <c r="E24">
-        <v>0.1712512601846043</v>
+        <v>0.07138544766170085</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.9583146719085818</v>
+        <v>0.6924413263454028</v>
       </c>
       <c r="H24">
-        <v>0.9747791666579673</v>
+        <v>0.4545356917197552</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06961549665873701</v>
+        <v>0.02500982067414403</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4461894434210052</v>
+        <v>0.4751288622080523</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.387650182190626</v>
+        <v>0.7532832204665851</v>
       </c>
       <c r="O24">
-        <v>3.911085683694949</v>
+        <v>2.369081722152686</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.667519447207439</v>
+        <v>3.129931956046789</v>
       </c>
       <c r="C25">
-        <v>0.180294767960973</v>
+        <v>0.3350951434812686</v>
       </c>
       <c r="D25">
-        <v>0.5206988885975363</v>
+        <v>0.3061238705488307</v>
       </c>
       <c r="E25">
-        <v>0.1723811176733321</v>
+        <v>0.06898099539999336</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.9539076878071597</v>
+        <v>0.617125149597328</v>
       </c>
       <c r="H25">
-        <v>0.9806684372157974</v>
+        <v>0.4312875477092177</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07025850907740905</v>
+        <v>0.02611559188568879</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4290692766536637</v>
+        <v>0.4007697244938129</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.406304043101905</v>
+        <v>0.791436452970359</v>
       </c>
       <c r="O25">
-        <v>3.913502808459612</v>
+        <v>2.159973458489873</v>
       </c>
     </row>
   </sheetData>
